--- a/sprawozdanie/merge_wykres.xlsx
+++ b/sprawozdanie/merge_wykres.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\STUDIA\Semestr 4\PAMSI\C++\Projekt 1 - Sortowanie\sprawozdanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259021CE-F0FE-43E6-91D4-36DA057C1E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C41501-640E-48A1-A115-779AE566D427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quick_wykres" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,10 +101,10 @@
     <t>100.00% OF ARRAY IS SORTED, BUT IT'S REVERSED</t>
   </si>
   <si>
-    <t>AVERAGE 100R</t>
+    <t>End of results</t>
   </si>
   <si>
-    <t>End of results</t>
+    <t>AVERAGE 100</t>
   </si>
 </sst>
 </file>
@@ -797,19 +804,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.3</c:v>
+                  <c:v>16.989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.159999999999997</c:v>
+                  <c:v>34.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.39</c:v>
+                  <c:v>188.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>383.67</c:v>
+                  <c:v>388.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,16 +853,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>16.010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178.51</c:v>
+                  <c:v>180.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>365.72</c:v>
+                  <c:v>377.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,19 +896,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.31</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.04</c:v>
+                  <c:v>15.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.19</c:v>
+                  <c:v>31.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168.06</c:v>
+                  <c:v>168.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345.02</c:v>
+                  <c:v>345.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,19 +942,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.08</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.17</c:v>
+                  <c:v>14.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.37</c:v>
+                  <c:v>29.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.72999999999999</c:v>
+                  <c:v>158.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>322</c:v>
+                  <c:v>322.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,16 +991,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.27</c:v>
+                  <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.4</c:v>
+                  <c:v>28.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.69999999999999</c:v>
+                  <c:v>149.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>307.47000000000003</c:v>
+                  <c:v>306.85000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,16 +1037,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.26</c:v>
+                  <c:v>13.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.31</c:v>
+                  <c:v>28.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.13</c:v>
+                  <c:v>148.06</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305.72000000000003</c:v>
+                  <c:v>303.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,16 +1085,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.09</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.54</c:v>
+                  <c:v>28.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145.72</c:v>
+                  <c:v>147.38999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300.43</c:v>
+                  <c:v>301.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,19 +1130,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8</c:v>
+                  <c:v>13.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.71</c:v>
+                  <c:v>27.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.78</c:v>
+                  <c:v>148.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305.91000000000003</c:v>
+                  <c:v>301.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,15 +2095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>366031</xdr:colOff>
+      <xdr:colOff>366032</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2424,12 +2431,12 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2451,7 +2458,8 @@
         <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <f>B3</f>
+        <v>3.04</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2459,13 +2467,14 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="G3">
         <v>50000</v>
       </c>
       <c r="H3" s="1">
-        <v>16.3</v>
+        <f>B9</f>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,7 +2488,8 @@
         <v>100000</v>
       </c>
       <c r="H4" s="1">
-        <v>34.159999999999997</v>
+        <f>B15</f>
+        <v>34.92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,13 +2497,14 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>500000</v>
       </c>
       <c r="H5" s="1">
-        <v>185.39</v>
+        <f>B21</f>
+        <v>188.41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2501,7 +2512,8 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="1">
-        <v>383.67</v>
+        <f>B27</f>
+        <v>388.88</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2519,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>16.3</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,7 +2547,7 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2553,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>34.159999999999997</v>
+        <v>34.92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2587,7 +2599,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>185.39</v>
+        <v>188.41</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2595,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2603,7 +2615,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>383.67</v>
+        <v>388.88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2629,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2637,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,6 +2665,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="1">
+        <f>B33</f>
         <v>3</v>
       </c>
     </row>
@@ -2664,7 +2677,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>16</v>
+        <f>B39</f>
+        <v>16.010000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,7 +2689,8 @@
         <v>3</v>
       </c>
       <c r="H34" s="1">
-        <v>33</v>
+        <f>B45</f>
+        <v>33.39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,12 +2701,14 @@
         <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>178.51</v>
+        <f>B51</f>
+        <v>180.38</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H36" s="1">
-        <v>365.72</v>
+        <f>B57</f>
+        <v>377.05</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,7 +2726,7 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>16.010000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2725,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2743,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>33</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2751,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2759,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2777,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="B51">
-        <v>178.51</v>
+        <v>180.38</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2785,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2811,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="B57">
-        <v>365.72</v>
+        <v>377.05</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2836,7 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2827,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="B59">
-        <v>394</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2843,7 +2860,8 @@
         <v>3</v>
       </c>
       <c r="H62" s="1">
-        <v>2.31</v>
+        <f>B63</f>
+        <v>2.38</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2851,10 +2869,11 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="H63" s="1">
-        <v>15.04</v>
+        <f>B69</f>
+        <v>15.02</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2865,7 +2884,8 @@
         <v>2</v>
       </c>
       <c r="H64" s="1">
-        <v>31.19</v>
+        <f>B75</f>
+        <v>31.11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2876,12 +2896,14 @@
         <v>3</v>
       </c>
       <c r="H65" s="1">
-        <v>168.06</v>
+        <f>B81</f>
+        <v>168.26</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H66" s="1">
-        <v>345.02</v>
+        <f>B87</f>
+        <v>345.88</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2899,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="B69">
-        <v>15.04</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>31.19</v>
+        <v>31.11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>168.06</v>
+        <v>168.26</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2983,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="B83">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>345.02</v>
+        <v>345.88</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3009,7 +3031,7 @@
         <v>5</v>
       </c>
       <c r="B88">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,7 +3039,7 @@
         <v>6</v>
       </c>
       <c r="B89">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3033,7 +3055,8 @@
         <v>3</v>
       </c>
       <c r="H92" s="1">
-        <v>2.08</v>
+        <f>B93</f>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3041,10 +3064,11 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H93" s="1">
-        <v>14.17</v>
+        <f>B99</f>
+        <v>14.12</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3055,7 +3079,8 @@
         <v>2</v>
       </c>
       <c r="H94" s="1">
-        <v>29.37</v>
+        <f>B105</f>
+        <v>29.36</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3063,15 +3088,17 @@
         <v>6</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H95" s="1">
-        <v>156.72999999999999</v>
+        <f>B111</f>
+        <v>158.16999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H96" s="1">
-        <v>322</v>
+        <f>B117</f>
+        <v>322.56</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>14.17</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>29.37</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>156.72999999999999</v>
+        <v>158.16999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3173,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="B113">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3191,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>322</v>
+        <v>322.56</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3199,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -3207,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="B119">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3223,6 +3250,7 @@
         <v>3</v>
       </c>
       <c r="H122" s="1">
+        <f>B123</f>
         <v>2</v>
       </c>
     </row>
@@ -3234,7 +3262,8 @@
         <v>2</v>
       </c>
       <c r="H123" s="1">
-        <v>13.27</v>
+        <f>B129</f>
+        <v>13.67</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3245,7 +3274,8 @@
         <v>2</v>
       </c>
       <c r="H124" s="1">
-        <v>28.4</v>
+        <f>B135</f>
+        <v>28.07</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3256,12 +3286,14 @@
         <v>2</v>
       </c>
       <c r="H125" s="1">
-        <v>149.69999999999999</v>
+        <f>B141</f>
+        <v>149.78</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H126" s="1">
-        <v>307.47000000000003</v>
+        <f>B147</f>
+        <v>306.85000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3279,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>13.27</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>28.4</v>
+        <v>28.07</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3347,7 +3379,7 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>149.69999999999999</v>
+        <v>149.78</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3363,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="B143">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>307.47000000000003</v>
+        <v>306.85000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -3389,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="B149">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -3413,6 +3445,7 @@
         <v>3</v>
       </c>
       <c r="H152" s="1">
+        <f>B153</f>
         <v>2</v>
       </c>
     </row>
@@ -3424,7 +3457,8 @@
         <v>2</v>
       </c>
       <c r="H153" s="1">
-        <v>13.26</v>
+        <f>B159</f>
+        <v>13.32</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -3435,7 +3469,8 @@
         <v>2</v>
       </c>
       <c r="H154" s="1">
-        <v>28.31</v>
+        <f>B165</f>
+        <v>28.02</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,12 +3481,14 @@
         <v>2</v>
       </c>
       <c r="H155" s="1">
-        <v>150.13</v>
+        <f>B171</f>
+        <v>148.06</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H156" s="1">
-        <v>305.72000000000003</v>
+        <f>B177</f>
+        <v>303.02</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -3469,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>13.26</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -3485,7 +3522,7 @@
         <v>6</v>
       </c>
       <c r="B161">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3503,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="B165">
-        <v>28.31</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="B167">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="B171">
-        <v>150.13</v>
+        <v>148.06</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3582,7 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="B173">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3571,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="B177">
-        <v>305.72000000000003</v>
+        <v>303.02</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -3579,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -3587,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="B179">
-        <v>350</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -3603,6 +3640,7 @@
         <v>3</v>
       </c>
       <c r="H182" s="1">
+        <f>B183</f>
         <v>2</v>
       </c>
     </row>
@@ -3614,7 +3652,8 @@
         <v>2</v>
       </c>
       <c r="H183" s="1">
-        <v>13.09</v>
+        <f>B189</f>
+        <v>13.2</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -3625,7 +3664,8 @@
         <v>2</v>
       </c>
       <c r="H184" s="1">
-        <v>27.54</v>
+        <f>B195</f>
+        <v>28.01</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -3636,12 +3676,14 @@
         <v>2</v>
       </c>
       <c r="H185" s="1">
-        <v>145.72</v>
+        <f>B201</f>
+        <v>147.38999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H186" s="1">
-        <v>300.43</v>
+        <f>B207</f>
+        <v>301.95</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -3659,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="B189">
-        <v>13.09</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -3693,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="B195">
-        <v>27.54</v>
+        <v>28.01</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3701,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="B196">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3709,7 +3751,7 @@
         <v>6</v>
       </c>
       <c r="B197">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>145.72</v>
+        <v>147.38999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="B202">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="B203">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="B207">
-        <v>300.43</v>
+        <v>301.95</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="B208">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -3777,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="B209">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -3785,7 +3827,7 @@
         <v>23</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -3793,7 +3835,8 @@
         <v>3</v>
       </c>
       <c r="H212" s="1">
-        <v>2.0499999999999998</v>
+        <f>B213</f>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -3801,10 +3844,11 @@
         <v>4</v>
       </c>
       <c r="B213">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="H213" s="1">
-        <v>13.8</v>
+        <f>B219</f>
+        <v>13.1</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -3815,7 +3859,8 @@
         <v>2</v>
       </c>
       <c r="H214" s="1">
-        <v>28.71</v>
+        <f>B225</f>
+        <v>27.99</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,15 +3868,17 @@
         <v>6</v>
       </c>
       <c r="B215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H215" s="1">
-        <v>148.78</v>
+        <f>B231</f>
+        <v>148.32</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H216" s="1">
-        <v>305.91000000000003</v>
+        <f>B237</f>
+        <v>301.64</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="B219">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -3865,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="B221">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -3883,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="B225">
-        <v>28.71</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,7 +3938,7 @@
         <v>5</v>
       </c>
       <c r="B226">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3899,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B227">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="B231">
-        <v>148.78</v>
+        <v>148.32</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3925,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="B232">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="B233">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +3998,7 @@
         <v>4</v>
       </c>
       <c r="B237">
-        <v>305.91000000000003</v>
+        <v>301.64</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="B238">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,12 +4014,12 @@
         <v>6</v>
       </c>
       <c r="B239">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/sprawozdanie/merge_wykres.xlsx
+++ b/sprawozdanie/merge_wykres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\STUDIA\Semestr 4\PAMSI\C++\Projekt 1 - Sortowanie\sprawozdanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C41501-640E-48A1-A115-779AE566D427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4542C79-225D-47FC-AD1E-BE71F09F6777}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B242"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
